--- a/Files/Tables/Equipment/Unique/Unique Armors.xlsx
+++ b/Files/Tables/Equipment/Unique/Unique Armors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ARMORS</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>RARITY</t>
-  </si>
-  <si>
-    <t>BONUS</t>
   </si>
   <si>
     <r>
@@ -94,6 +91,27 @@
       </rPr>
       <t>of the mod</t>
     </r>
+  </si>
+  <si>
+    <t>Blade Mail</t>
+  </si>
+  <si>
+    <t>Shroud of Secrecy</t>
+  </si>
+  <si>
+    <t>Heavy Armor - Cuirass</t>
+  </si>
+  <si>
+    <t>Infinity Gauntlet</t>
+  </si>
+  <si>
+    <t>Heavy Armor - Gauntlet</t>
+  </si>
+  <si>
+    <t>SOCKET COUNT</t>
+  </si>
+  <si>
+    <t>BONUS(ES)</t>
   </si>
 </sst>
 </file>
@@ -517,21 +535,25 @@
   <dimension ref="B1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -580,7 +602,31 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">

--- a/Files/Tables/Equipment/Unique/Unique Armors.xlsx
+++ b/Files/Tables/Equipment/Unique/Unique Armors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ARMORS</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>BONUS(ES)</t>
+  </si>
+  <si>
+    <t>ENCHANTMENTS</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
   <dimension ref="B1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,6 +551,7 @@
     <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -607,6 +611,9 @@
       <c r="K8" t="s">
         <v>14</v>
       </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">

--- a/Files/Tables/Equipment/Unique/Unique Armors.xlsx
+++ b/Files/Tables/Equipment/Unique/Unique Armors.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{30478CEC-DE06-4BC0-9920-9A3CD7E00122}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ARMORS</t>
   </si>
@@ -93,21 +94,9 @@
     </r>
   </si>
   <si>
-    <t>Blade Mail</t>
-  </si>
-  <si>
     <t>Shroud of Secrecy</t>
   </si>
   <si>
-    <t>Heavy Armor - Cuirass</t>
-  </si>
-  <si>
-    <t>Infinity Gauntlet</t>
-  </si>
-  <si>
-    <t>Heavy Armor - Gauntlet</t>
-  </si>
-  <si>
     <t>SOCKET COUNT</t>
   </si>
   <si>
@@ -115,12 +104,27 @@
   </si>
   <si>
     <t>ENCHANTMENTS</t>
+  </si>
+  <si>
+    <t>Emperor's Helm</t>
+  </si>
+  <si>
+    <t>Emperor's Cuirass</t>
+  </si>
+  <si>
+    <t>Emperor's Gauntlets</t>
+  </si>
+  <si>
+    <t>Emperor's Boots</t>
+  </si>
+  <si>
+    <t>Red Dragon Crown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -534,28 +538,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -568,7 +572,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -579,8 +583,8 @@
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -606,38 +610,45 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L12" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
